--- a/biology/Médecine/1883_en_santé_et_médecine/1883_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1883_en_santé_et_médecine/1883_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1883_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1883_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1883 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1883_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1883_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>22 mars : inauguration du nouvel hôpital homéopathique Saint-Jacques, au 35-37 rue des Volontaires à Paris[1].
-Août : le médecin et microbiologiste allemand Robert Koch (1843-1910) se rend à Damiette en Égypte avec un groupe de savants allemands pour étudier le  choléra ; il met en évidence le bacille responsable de la maladie, découverte confirmée à Calcutta en janvier 1884[2].
-Théodor Klebs découvre le bacille de Löffler-Klebs responsable de la diphtérie, isolé par Friedrich Loeffler en 1884[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>22 mars : inauguration du nouvel hôpital homéopathique Saint-Jacques, au 35-37 rue des Volontaires à Paris.
+Août : le médecin et microbiologiste allemand Robert Koch (1843-1910) se rend à Damiette en Égypte avec un groupe de savants allemands pour étudier le  choléra ; il met en évidence le bacille responsable de la maladie, découverte confirmée à Calcutta en janvier 1884.
+Théodor Klebs découvre le bacille de Löffler-Klebs responsable de la diphtérie, isolé par Friedrich Loeffler en 1884.
 Albert Calmette (1863-1933) commence à exercer à Hong Kong, dans le corps de médecins de marine.</t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1883_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1883_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6 janvier : Paul Goy (mort en 1964), médecin et poète français[4].
-23 février : Karl Jaspers (mort en 1969), psychiatre et philosophe allemand[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>6 janvier : Paul Goy (mort en 1964), médecin et poète français.
+23 février : Karl Jaspers (mort en 1969), psychiatre et philosophe allemand.
 2 mars : Leonard Colebrook (mort en 1967), médecin et bactériologiste anglais.
 13 juin : Arthur Guedel (mort en 1956), médecin anesthésiste américain.
 7 juillet : Paul Alsberg (mort en 1965), médecin et anthropologue allemand.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1883_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1883_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,11 +596,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>23 février : Jules Cloquet (né en 1790), anatomiste et chirurgien français[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>23 février : Jules Cloquet (né en 1790), anatomiste et chirurgien français.
 20 mars : Charles Lasègue (né en 1816), psychiatre français.
-27 mars : James Manby Gully (né en 1808), médecin thermaliste britannique[7].
+27 mars : James Manby Gully (né en 1808), médecin thermaliste britannique.
 10 avril : Maurice Krishaber (né en 1836), médecin oto-rhino-laryngologiste hongrois.</t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1883_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1883_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,7 +631,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Michel Debonne, « L'hôpital-école homéopathique Saint-Jacques », bulletin n°6, sur paris15histoire.com, Société historique et archéologique
@@ -634,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1883_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1883_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -652,7 +672,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En lien avec la santé publique et la médecine sociale de la décennie :
 Chronologie des faits économiques et sociaux dans les années 1880
